--- a/Data/Trade/SZ.000895.xlsx
+++ b/Data/Trade/SZ.000895.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>566</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45.88522143</v>
+        <v>45.89</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -487,12 +487,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.36186770428016</v>
+        <v>51.55641433017794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.47278783</v>
+        <v>50.47</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -512,12 +512,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8910505836576</v>
+        <v>103.8240117185337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50.39632839</v>
+        <v>50.4</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -537,12 +537,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>85.35929955290669</v>
+        <v>85.34453028425699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>246</v>
+        <v>569</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49.72730829</v>
+        <v>49.73</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -562,12 +562,12 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>70.59362590882861</v>
+        <v>70.59236027303464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>247</v>
+        <v>570</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.5074874</v>
+        <v>49.51</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -587,12 +587,12 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.39047031360786</v>
+        <v>62.39695561842029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>248</v>
+        <v>571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48.02608575</v>
+        <v>48.03</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -612,12 +612,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>43.73393103553809</v>
+        <v>43.76133829602765</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>249</v>
+        <v>572</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>48.84802473</v>
+        <v>48.85</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -637,12 +637,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.64306516960455</v>
+        <v>44.66168088613543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>250</v>
+        <v>573</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.68305129</v>
+        <v>50.68</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -662,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>64.59010096499544</v>
+        <v>64.55509130640026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>251</v>
+        <v>574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51.12269307</v>
+        <v>51.12</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -687,12 +687,12 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>78.83462177908305</v>
+        <v>78.78005463924057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>252</v>
+        <v>575</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.23032193</v>
+        <v>49.23</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -712,12 +712,12 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>60.23035970144846</v>
+        <v>60.1926911987928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47.71069056</v>
+        <v>47.71</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -737,12 +737,12 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>22.48006354708141</v>
+        <v>22.44762812960309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>254</v>
+        <v>577</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46.79317728</v>
+        <v>46.79</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -762,12 +762,12 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.735788855510961</v>
+        <v>-3.800710001644873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>255</v>
+        <v>578</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>46.23884634</v>
+        <v>46.24</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -787,12 +787,12 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.677775766437023</v>
+        <v>-6.69612873669702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>256</v>
+        <v>579</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47.1181299</v>
+        <v>47.12</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,12 +812,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.626606916339796</v>
+        <v>4.641337792662966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>257</v>
+        <v>580</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46.64981583</v>
+        <v>46.65</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -837,12 +837,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.486091055654214</v>
+        <v>6.497022846860752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>258</v>
+        <v>581</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>48.12166005</v>
+        <v>48.12</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -862,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>26.13804808837201</v>
+        <v>26.12455179116603</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46.77406242</v>
+        <v>46.77</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>20.60718073870258</v>
+        <v>20.5531018349609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45.54115395</v>
+        <v>45.54</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -912,12 +912,12 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.08038887943583</v>
+        <v>8.041696194761435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>261</v>
+        <v>584</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44.59496838</v>
+        <v>44.59</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -937,12 +937,12 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.862425043836666</v>
+        <v>5.769226514076152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>262</v>
+        <v>585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44.91036357</v>
+        <v>44.91</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -962,12 +962,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15.73837421272317</v>
+        <v>15.6925256748033</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>263</v>
+        <v>586</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45.13974189</v>
+        <v>45.14</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -987,12 +987,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.47089287837608</v>
+        <v>24.45932724020135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>264</v>
+        <v>587</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>47.06078532</v>
+        <v>47.06</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1012,12 +1012,12 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>56.39060149253455</v>
+        <v>56.38115730706419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>265</v>
+        <v>588</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>46.19105919</v>
+        <v>46.19</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>59.07532692692786</v>
+        <v>59.06235299007758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>266</v>
+        <v>589</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45.42646479</v>
+        <v>45.43</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.19715309982506</v>
+        <v>48.24760061584752</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>267</v>
+        <v>590</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45.09195474</v>
+        <v>45.09</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1087,12 +1087,12 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>37.08946226093671</v>
+        <v>37.09119255677111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>268</v>
+        <v>591</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>46.1623869</v>
+        <v>46.16</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1112,12 +1112,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>60.47404859105154</v>
+        <v>60.43109223955935</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>592</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>48.06431547</v>
+        <v>48.06</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.75140415150088</v>
+        <v>94.66224421556632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>270</v>
+        <v>593</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49.01050104</v>
+        <v>49.01</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1162,12 +1162,12 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>103.1937071161126</v>
+        <v>103.1487726105323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>271</v>
+        <v>594</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46.36309293</v>
+        <v>46.36</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1187,12 +1187,12 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>63.06835493028284</v>
+        <v>63.01570830880145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>272</v>
+        <v>595</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46.831407</v>
+        <v>46.83</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>46.39852780033704</v>
+        <v>46.36301178972045</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.7800897</v>
+        <v>45.78</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1237,12 +1237,12 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.01029897859095</v>
+        <v>25.00029730270013</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>274</v>
+        <v>597</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>45.22575876</v>
+        <v>45.23</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1262,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>8.236702292993755</v>
+        <v>8.293131146972954</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>45.7800897</v>
+        <v>45.78</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1287,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.246880422147356</v>
+        <v>8.279998331451893</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>276</v>
+        <v>599</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>45.15885675</v>
+        <v>45.16</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1312,12 +1312,12 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.009940597447326</v>
+        <v>2.044270859632263</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>277</v>
+        <v>600</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44.00240772</v>
+        <v>44</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1337,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.534662348328574</v>
+        <v>-4.542479642558582</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>278</v>
+        <v>601</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>44.57585352</v>
+        <v>44.58</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1362,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03511973056642148</v>
+        <v>0.0781053232732063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.01196515</v>
+        <v>44.01</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1387,12 +1387,12 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.632818020173765</v>
+        <v>-2.633056099793009</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>44.78611698</v>
+        <v>44.79</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1412,12 +1412,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>18.43546299298639</v>
+        <v>18.51938330819984</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>281</v>
+        <v>604</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>43.57232337</v>
+        <v>43.57</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1437,12 +1437,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9.877417950917895</v>
+        <v>9.865838694347197</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>282</v>
+        <v>605</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>43.1040093</v>
+        <v>43.1</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1462,12 +1462,12 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>12.26667631288749</v>
+        <v>12.16896083848344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41.62260765</v>
+        <v>41.62</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1487,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>3.536764411169376</v>
+        <v>3.443223858194724</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39.8544831</v>
+        <v>39.85</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1512,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6624289838315</v>
+        <v>3.567587538706338</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>285</v>
+        <v>608</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>39.07077384</v>
+        <v>39.07</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.308972379387566</v>
+        <v>2.258603379923716</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>286</v>
+        <v>609</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39.73979394</v>
+        <v>39.74</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1562,12 +1562,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.50438170666309</v>
+        <v>10.49029258465486</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>39.34793931</v>
+        <v>39.35</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1587,12 +1587,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.910359251008245</v>
+        <v>9.93762112284886</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>288</v>
+        <v>611</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>38.0385714</v>
+        <v>38.04</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1612,12 +1612,12 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>2.509249493790186</v>
+        <v>2.545691834289354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>289</v>
+        <v>612</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>38.87006781</v>
+        <v>38.87</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1637,12 +1637,12 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>8.94610711258936</v>
+        <v>8.968052502990471</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>39.7589088</v>
+        <v>39.76</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1662,12 +1662,12 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>26.99329695515455</v>
+        <v>27.02246525274496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>291</v>
+        <v>614</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>39.27147987</v>
+        <v>39.27</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -1687,12 +1687,12 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>28.7549840954382</v>
+        <v>28.74999904565066</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>38.67891921</v>
+        <v>38.68</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -1712,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>25.91857520159349</v>
+        <v>25.94015430808389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>293</v>
+        <v>616</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>39.00387183</v>
+        <v>39</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -1737,12 +1737,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>43.29558501782212</v>
+        <v>43.17749443796345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>294</v>
+        <v>617</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>39.20457786</v>
+        <v>39.2</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1762,12 +1762,12 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>59.63653570735517</v>
+        <v>59.4209706426055</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>295</v>
+        <v>618</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39.19502043</v>
+        <v>39.2</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1787,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>66.11335454701506</v>
+        <v>66.18805902940932</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>296</v>
+        <v>619</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40.3323546</v>
+        <v>40.33</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -1812,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>94.02967813546623</v>
+        <v>94.00797378398255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>297</v>
+        <v>620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>40.64774979</v>
+        <v>40.65</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1837,12 +1837,12 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>107.1392885099694</v>
+        <v>107.2002684341518</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>298</v>
+        <v>621</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>41.36455704</v>
+        <v>41.36</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -1862,12 +1862,12 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>114.6592573739234</v>
+        <v>114.581029001648</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>299</v>
+        <v>622</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>41.93800284</v>
+        <v>41.94</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -1887,12 +1887,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>113.777296726136</v>
+        <v>113.7846353563278</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>39.185463</v>
+        <v>39.19</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>54.59169909986642</v>
+        <v>54.69416365568398</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>301</v>
+        <v>624</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>39.11856099</v>
+        <v>39.12</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1937,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>19.86043160665685</v>
+        <v>19.94505368648682</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>302</v>
+        <v>625</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>38.36352402</v>
+        <v>38.36</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.092300188638461</v>
+        <v>-1.11704061823977</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>303</v>
+        <v>626</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>38.5164429</v>
+        <v>38.52</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -1987,12 +1987,12 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.579555039293737</v>
+        <v>-6.527940162296176</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>304</v>
+        <v>627</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>38.12458827</v>
+        <v>38.12</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2012,12 +2012,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.92458758059351</v>
+        <v>-7.979535836591097</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>305</v>
+        <v>628</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>37.72317621</v>
+        <v>37.72</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2037,12 +2037,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.33689565949503</v>
+        <v>-13.42021897092998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>37.95255453</v>
+        <v>37.95</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -2062,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.411381893455228</v>
+        <v>-8.494134012313296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>307</v>
+        <v>630</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>37.19751756</v>
+        <v>37.2</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2087,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.386833103079546</v>
+        <v>-5.388204963571731</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>308</v>
+        <v>631</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>37.79963565</v>
+        <v>37.8</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2112,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>8.262567791023393</v>
+        <v>8.272452113216914</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>309</v>
+        <v>632</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>38.49732804</v>
+        <v>38.5</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>52.50068555345032</v>
+        <v>52.58832723686185</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>310</v>
+        <v>633</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>38.46865575</v>
+        <v>38.47</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -2162,12 +2162,12 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>76.11376994636908</v>
+        <v>76.20070108936469</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>37.8474228</v>
+        <v>37.85</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2187,12 +2187,12 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>76.40873431185858</v>
+        <v>76.55122120679563</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>312</v>
+        <v>635</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>37.33132158</v>
+        <v>37.33</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2212,12 +2212,12 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>54.30869270802313</v>
+        <v>54.32123784011942</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>313</v>
+        <v>636</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>37.30264929</v>
+        <v>37.3</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2237,12 +2237,12 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>40.97496547317078</v>
+        <v>40.86874528102655</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>37.92388224</v>
+        <v>37.92</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2262,12 +2262,12 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>58.40806047940043</v>
+        <v>58.19750703940359</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>38.01945654</v>
+        <v>38.02</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2287,12 +2287,12 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>70.40169126089253</v>
+        <v>70.32034940365575</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>316</v>
+        <v>639</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>38.38263888</v>
+        <v>38.38</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2312,12 +2312,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>89.7025909903991</v>
+        <v>89.56565709135936</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>317</v>
+        <v>640</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>37.57981476</v>
+        <v>37.58</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -2337,12 +2337,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>62.26264214857436</v>
+        <v>62.21311516834768</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>318</v>
+        <v>641</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>38.10547341</v>
+        <v>38.11</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2362,12 +2362,12 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>70.2507428596281</v>
+        <v>70.43363514012307</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>319</v>
+        <v>642</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>35.68744362</v>
+        <v>35.69</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2387,12 +2387,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>27.45231523273246</v>
+        <v>27.61142234269643</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>320</v>
+        <v>643</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>35.25735927</v>
+        <v>35.26</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
@@ -2412,12 +2412,12 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>3.95281870080106</v>
+        <v>4.09119130912606</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>35.01842352</v>
+        <v>35.02</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2437,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.056836075065135</v>
+        <v>-8.95958610952529</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>322</v>
+        <v>645</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>34.62656889</v>
+        <v>34.63</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2462,12 +2462,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-14.65270328908831</v>
+        <v>-14.54592257915057</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>34.20604197</v>
+        <v>34.21</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -2487,12 +2487,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-15.62832979500764</v>
+        <v>-15.51646196380608</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>324</v>
+        <v>647</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>33.08782266</v>
+        <v>33.09</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -2512,12 +2512,12 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.331360638731489</v>
+        <v>-9.261473745122853</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>325</v>
+        <v>648</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>33.85241706</v>
+        <v>33.85</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2537,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>5.770869001233486</v>
+        <v>5.756746669088621</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>326</v>
+        <v>649</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>34.70302833</v>
+        <v>34.7</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -2562,12 +2562,12 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>26.8725890781138</v>
+        <v>26.80796618880744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>327</v>
+        <v>650</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>34.94196408</v>
+        <v>34.94</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2587,12 +2587,12 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>46.9830819844408</v>
+        <v>46.90677562239075</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>328</v>
+        <v>651</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>35.53452474</v>
+        <v>35.53</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -2612,12 +2612,12 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>88.44090097795745</v>
+        <v>88.28500035954832</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>329</v>
+        <v>652</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>35.60142675</v>
+        <v>35.6</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
@@ -2637,12 +2637,12 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>109.2286997096072</v>
+        <v>109.1148077161881</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>330</v>
+        <v>653</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>35.88814965</v>
+        <v>35.89</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2662,12 +2662,12 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>120.5638425901366</v>
+        <v>120.5554263353639</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>331</v>
+        <v>654</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>36.30867657</v>
+        <v>36.31</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -2687,12 +2687,12 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>124.0855546320148</v>
+        <v>124.1154422987785</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>332</v>
+        <v>655</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>36.28000428</v>
+        <v>36.28</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -2712,12 +2712,12 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>120.3779420099608</v>
+        <v>120.3973412343639</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>333</v>
+        <v>656</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2737,12 +2737,12 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>96.01683160434351</v>
+        <v>96.02948979535608</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>334</v>
+        <v>657</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2762,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>83.7441474645741</v>
+        <v>83.7524031750784</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2787,12 +2787,12 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>92.87739688301272</v>
+        <v>92.88277863434621</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>336</v>
+        <v>659</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2812,12 +2812,12 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>83.46948775093617</v>
+        <v>83.47299421471223</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>337</v>
+        <v>660</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2837,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>66.58243472644509</v>
+        <v>66.58471812199829</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>338</v>
+        <v>661</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2862,12 +2862,12 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>40.84024956730588</v>
+        <v>40.84173566636522</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>339</v>
+        <v>662</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>15.63303353477099</v>
+        <v>15.63400015771535</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>340</v>
+        <v>663</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2912,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>17.48957065059382</v>
+        <v>17.49019899271552</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>341</v>
+        <v>664</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2937,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>4.12209013655756</v>
+        <v>4.122498315855623</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>342</v>
+        <v>665</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2962,12 +2962,12 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2.872029161216744</v>
+        <v>2.872294137115631</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>343</v>
+        <v>666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2987,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.943131612257915</v>
+        <v>1.943303500435078</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>344</v>
+        <v>667</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3012,12 +3012,12 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>-4.836039988254704</v>
+        <v>-4.835928571084665</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>345</v>
+        <v>668</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3037,12 +3037,12 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.244723376958945</v>
+        <v>-1.244651215477631</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>346</v>
+        <v>669</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3062,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-4.020077168867459</v>
+        <v>-4.020030472301286</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>347</v>
+        <v>670</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3087,12 +3087,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-6.867520679030932</v>
+        <v>-6.867490488712171</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>348</v>
+        <v>671</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3112,12 +3112,12 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>13.37341636481047</v>
+        <v>13.37343586453941</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3137,12 +3137,12 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>10.69817641699191</v>
+        <v>10.69818899871105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>350</v>
+        <v>673</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3162,12 +3162,12 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>7.024556511624827</v>
+        <v>7.024564620704151</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>351</v>
+        <v>674</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3187,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>4.531671902273015</v>
+        <v>4.531677122503606</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>352</v>
+        <v>675</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3212,12 +3212,12 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>11.24883053091229</v>
+        <v>11.24883388718449</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>353</v>
+        <v>676</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3237,12 +3237,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>7.29062959724266</v>
+        <v>7.290631752169769</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>354</v>
+        <v>677</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3262,12 +3262,12 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>16.93044801129577</v>
+        <v>16.93044939285539</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>355</v>
+        <v>678</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3287,12 +3287,12 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>28.31651432120636</v>
+        <v>28.31651520554046</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>356</v>
+        <v>679</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3312,12 +3312,12 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>36.47725392021449</v>
+        <v>36.47725448530012</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>357</v>
+        <v>680</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>50.01368110944374</v>
+        <v>50.01368146985388</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>358</v>
+        <v>681</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3362,12 +3362,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>69.22136972322974</v>
+        <v>69.22136995262744</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>359</v>
+        <v>682</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3387,12 +3387,12 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>70.12400698986491</v>
+        <v>70.12400713554622</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>360</v>
+        <v>683</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3412,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>65.74419976681521</v>
+        <v>65.74419985910244</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>361</v>
+        <v>684</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3437,12 +3437,12 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>81.76650299426849</v>
+        <v>81.76650305257087</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>362</v>
+        <v>685</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3462,12 +3462,12 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>63.40847614148504</v>
+        <v>63.40847617820499</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3487,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>25.70511946274787</v>
+        <v>25.70511948579566</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>364</v>
+        <v>687</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3512,12 +3512,12 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>19.29753244430698</v>
+        <v>19.29753245871736</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>365</v>
+        <v>688</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3537,12 +3537,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>3.281923672832846</v>
+        <v>3.281923681803235</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>366</v>
+        <v>689</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3562,12 +3562,12 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>-8.085863767563545</v>
+        <v>-8.085863762007641</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>367</v>
+        <v>690</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3587,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>-6.537190545373761</v>
+        <v>-6.537190541952725</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>368</v>
+        <v>691</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3612,12 +3612,12 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>-6.82148348354518</v>
+        <v>-6.8214834814531</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>369</v>
+        <v>692</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3637,12 +3637,12 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>5.294986083560183</v>
+        <v>5.294986084829169</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3662,12 +3662,12 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>13.3877083888438</v>
+        <v>13.38770838960597</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>371</v>
+        <v>694</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>14.73894673235564</v>
+        <v>14.73894673280787</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3712,12 +3712,12 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>7.743566691826956</v>
+        <v>7.743566692091179</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>373</v>
+        <v>696</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3737,12 +3737,12 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>6.621423439739882</v>
+        <v>6.621423439891199</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>374</v>
+        <v>697</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3762,12 +3762,12 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>22.72644044411926</v>
+        <v>22.72644044420358</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>375</v>
+        <v>698</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3787,12 +3787,12 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>7.447167927567744</v>
+        <v>7.447167927612924</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>376</v>
+        <v>699</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>13.9150112471687</v>
+        <v>13.91501124719145</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>377</v>
+        <v>700</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3837,12 +3837,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>8.570443554598388</v>
+        <v>8.570443554608655</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>378</v>
+        <v>701</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3862,12 +3862,12 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>3.851594851387606</v>
+        <v>3.851594851391177</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>379</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3887,12 +3887,12 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1.581890006050404</v>
+        <v>1.581890006050603</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>380</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3912,12 +3912,12 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>8.83846868878037</v>
+        <v>8.838468688779049</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>381</v>
+        <v>704</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3937,12 +3937,12 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>2.632484091013282</v>
+        <v>2.632484091011435</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>382</v>
+        <v>705</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3962,12 +3962,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>10.6489744674429</v>
+        <v>10.64897446744103</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>383</v>
+        <v>706</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3987,12 +3987,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>28.04295142954118</v>
+        <v>28.0429514295395</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>384</v>
+        <v>707</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4012,12 +4012,12 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>60.40866521108981</v>
+        <v>60.40866521108839</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>385</v>
+        <v>708</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4037,12 +4037,12 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>64.10207242746219</v>
+        <v>64.10207242746105</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>386</v>
+        <v>709</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4062,12 +4062,12 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>66.73380631294185</v>
+        <v>66.73380631294097</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>387</v>
+        <v>710</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4087,12 +4087,12 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>65.06165700098269</v>
+        <v>65.06165700098202</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>388</v>
+        <v>711</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4112,12 +4112,12 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>87.65409667663073</v>
+        <v>87.65409667663023</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>389</v>
+        <v>712</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4137,12 +4137,12 @@
         <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>103.9808760253683</v>
+        <v>103.9808760253679</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4162,12 +4162,12 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>96.09025310017205</v>
+        <v>96.09025310017176</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4187,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>73.42729870985723</v>
+        <v>73.42729870985697</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>392</v>
+        <v>715</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4212,12 +4212,12 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>51.32375134054008</v>
+        <v>51.32375134053991</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>393</v>
+        <v>716</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4237,12 +4237,12 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>60.18604760993249</v>
+        <v>60.18604760993236</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>394</v>
+        <v>717</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4262,12 +4262,12 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>62.79188677764573</v>
+        <v>62.79188677764564</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>395</v>
+        <v>718</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4287,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>30.6345663479526</v>
+        <v>30.63456634795254</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>396</v>
+        <v>719</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4312,12 +4312,12 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>4.276291317159149</v>
+        <v>4.276291317159107</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>397</v>
+        <v>720</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4337,12 +4337,12 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>9.129814762716634</v>
+        <v>9.129814762716606</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>398</v>
+        <v>721</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4362,12 +4362,12 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>11.728026986697</v>
+        <v>11.72802698669699</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>399</v>
+        <v>722</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>402</v>
+        <v>725</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>403</v>
+        <v>726</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>404</v>
+        <v>727</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>405</v>
+        <v>728</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>406</v>
+        <v>729</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>407</v>
+        <v>730</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>408</v>
+        <v>731</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>409</v>
+        <v>732</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>410</v>
+        <v>733</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>412</v>
+        <v>735</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>413</v>
+        <v>736</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>414</v>
+        <v>737</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4788,6 +4788,381 @@
       </c>
       <c r="G174" t="n">
         <v>24.83491371684289</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021-09-16</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>40.657822122669</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>65.7487693311614</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021-09-22</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>25.43</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>52.82205883005803</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021-09-23</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>63.35918732898794</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021-09-24</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>84.30858806079638</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021-09-27</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>27.66</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>90.63624405027122</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021-09-28</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>82.61810772471802</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021-09-29</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>82.28369201960479</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021-09-30</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>75.38720803430428</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021-10-08</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>91.72292196473788</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021-10-11</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="b">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>86.28525654230165</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="b">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>77.46019178721579</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021-10-13</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>80.8754780171684</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021-10-14</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="D188" t="b">
+        <v>0</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>55.43846878412873</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021-10-15</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>26.56</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>8.631958605699964</v>
       </c>
     </row>
   </sheetData>
